--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Il4-Il4ra.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Il4-Il4ra.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Il4</t>
   </si>
   <si>
     <t>Il4ra</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.9434939568503991</v>
+        <v>0.205579</v>
       </c>
       <c r="H2">
-        <v>0.9434939568503991</v>
+        <v>0.616737</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.09194453484625968</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.09194453484625968</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>36.2700332504076</v>
+        <v>39.324435</v>
       </c>
       <c r="N2">
-        <v>36.2700332504076</v>
+        <v>117.973305</v>
       </c>
       <c r="O2">
-        <v>0.589524154905631</v>
+        <v>0.6061145373950505</v>
       </c>
       <c r="P2">
-        <v>0.589524154905631</v>
+        <v>0.6061145373950504</v>
       </c>
       <c r="Q2">
-        <v>34.2205571865226</v>
+        <v>8.084278022865</v>
       </c>
       <c r="R2">
-        <v>34.2205571865226</v>
+        <v>72.75850220578501</v>
       </c>
       <c r="S2">
-        <v>0.589524154905631</v>
+        <v>0.05572891920434379</v>
       </c>
       <c r="T2">
-        <v>0.589524154905631</v>
+        <v>0.05572891920434378</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +581,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.9434939568503991</v>
+        <v>0.205579</v>
       </c>
       <c r="H3">
-        <v>0.9434939568503991</v>
+        <v>0.616737</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.09194453484625968</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.09194453484625968</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>18.6011894508234</v>
+        <v>18.77253166666667</v>
       </c>
       <c r="N3">
-        <v>18.6011894508234</v>
+        <v>56.317595</v>
       </c>
       <c r="O3">
-        <v>0.3023391353277288</v>
+        <v>0.2893443821093832</v>
       </c>
       <c r="P3">
-        <v>0.3023391353277288</v>
+        <v>0.2893443821093831</v>
       </c>
       <c r="Q3">
-        <v>17.55010983708127</v>
+        <v>3.859238287501666</v>
       </c>
       <c r="R3">
-        <v>17.55010983708127</v>
+        <v>34.733144587515</v>
       </c>
       <c r="S3">
-        <v>0.3023391353277288</v>
+        <v>0.02660363462342566</v>
       </c>
       <c r="T3">
-        <v>0.3023391353277288</v>
+        <v>0.02660363462342565</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +643,433 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G4">
+        <v>0.205579</v>
+      </c>
+      <c r="H4">
+        <v>0.616737</v>
+      </c>
+      <c r="I4">
+        <v>0.09194453484625968</v>
+      </c>
+      <c r="J4">
+        <v>0.09194453484625968</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>6.782577666666666</v>
+      </c>
+      <c r="N4">
+        <v>20.347733</v>
+      </c>
+      <c r="O4">
+        <v>0.1045410804955664</v>
+      </c>
+      <c r="P4">
+        <v>0.1045410804955663</v>
+      </c>
+      <c r="Q4">
+        <v>1.394355534135666</v>
+      </c>
+      <c r="R4">
+        <v>12.549199807221</v>
+      </c>
+      <c r="S4">
+        <v>0.009611981018490239</v>
+      </c>
+      <c r="T4">
+        <v>0.009611981018490237</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1.095701666666667</v>
+      </c>
+      <c r="H5">
+        <v>3.287105</v>
+      </c>
+      <c r="I5">
+        <v>0.4900489839523402</v>
+      </c>
+      <c r="J5">
+        <v>0.4900489839523402</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>39.324435</v>
+      </c>
+      <c r="N5">
+        <v>117.973305</v>
+      </c>
+      <c r="O5">
+        <v>0.6061145373950505</v>
+      </c>
+      <c r="P5">
+        <v>0.6061145373950504</v>
+      </c>
+      <c r="Q5">
+        <v>43.087848970225</v>
+      </c>
+      <c r="R5">
+        <v>387.7906407320251</v>
+      </c>
+      <c r="S5">
+        <v>0.2970258132091872</v>
+      </c>
+      <c r="T5">
+        <v>0.2970258132091871</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1.095701666666667</v>
+      </c>
+      <c r="H6">
+        <v>3.287105</v>
+      </c>
+      <c r="I6">
+        <v>0.4900489839523402</v>
+      </c>
+      <c r="J6">
+        <v>0.4900489839523402</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>18.77253166666667</v>
+      </c>
+      <c r="N6">
+        <v>56.317595</v>
+      </c>
+      <c r="O6">
+        <v>0.2893443821093832</v>
+      </c>
+      <c r="P6">
+        <v>0.2893443821093831</v>
+      </c>
+      <c r="Q6">
+        <v>20.56909423471944</v>
+      </c>
+      <c r="R6">
+        <v>185.121848112475</v>
+      </c>
+      <c r="S6">
+        <v>0.1417929204650209</v>
+      </c>
+      <c r="T6">
+        <v>0.1417929204650209</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1.095701666666667</v>
+      </c>
+      <c r="H7">
+        <v>3.287105</v>
+      </c>
+      <c r="I7">
+        <v>0.4900489839523402</v>
+      </c>
+      <c r="J7">
+        <v>0.4900489839523402</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>6.782577666666666</v>
+      </c>
+      <c r="N7">
+        <v>20.347733</v>
+      </c>
+      <c r="O7">
+        <v>0.1045410804955664</v>
+      </c>
+      <c r="P7">
+        <v>0.1045410804955663</v>
+      </c>
+      <c r="Q7">
+        <v>7.431681653662777</v>
+      </c>
+      <c r="R7">
+        <v>66.88513488296499</v>
+      </c>
+      <c r="S7">
+        <v>0.05123025027813211</v>
+      </c>
+      <c r="T7">
+        <v>0.0512302502781321</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>0.9434939568503991</v>
-      </c>
-      <c r="H4">
-        <v>0.9434939568503991</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>6.65303028923989</v>
-      </c>
-      <c r="N4">
-        <v>6.65303028923989</v>
-      </c>
-      <c r="O4">
-        <v>0.1081367097666401</v>
-      </c>
-      <c r="P4">
-        <v>0.1081367097666401</v>
-      </c>
-      <c r="Q4">
-        <v>6.277093872640498</v>
-      </c>
-      <c r="R4">
-        <v>6.277093872640498</v>
-      </c>
-      <c r="S4">
-        <v>0.1081367097666401</v>
-      </c>
-      <c r="T4">
-        <v>0.1081367097666401</v>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.9346216666666667</v>
+      </c>
+      <c r="H8">
+        <v>2.803865</v>
+      </c>
+      <c r="I8">
+        <v>0.4180064812014002</v>
+      </c>
+      <c r="J8">
+        <v>0.4180064812014001</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>39.324435</v>
+      </c>
+      <c r="N8">
+        <v>117.973305</v>
+      </c>
+      <c r="O8">
+        <v>0.6061145373950505</v>
+      </c>
+      <c r="P8">
+        <v>0.6061145373950504</v>
+      </c>
+      <c r="Q8">
+        <v>36.753468980425</v>
+      </c>
+      <c r="R8">
+        <v>330.781220823825</v>
+      </c>
+      <c r="S8">
+        <v>0.2533598049815196</v>
+      </c>
+      <c r="T8">
+        <v>0.2533598049815194</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.9346216666666667</v>
+      </c>
+      <c r="H9">
+        <v>2.803865</v>
+      </c>
+      <c r="I9">
+        <v>0.4180064812014002</v>
+      </c>
+      <c r="J9">
+        <v>0.4180064812014001</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>18.77253166666667</v>
+      </c>
+      <c r="N9">
+        <v>56.317595</v>
+      </c>
+      <c r="O9">
+        <v>0.2893443821093832</v>
+      </c>
+      <c r="P9">
+        <v>0.2893443821093831</v>
+      </c>
+      <c r="Q9">
+        <v>17.54521483385278</v>
+      </c>
+      <c r="R9">
+        <v>157.906933504675</v>
+      </c>
+      <c r="S9">
+        <v>0.1209478270209366</v>
+      </c>
+      <c r="T9">
+        <v>0.1209478270209366</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.9346216666666667</v>
+      </c>
+      <c r="H10">
+        <v>2.803865</v>
+      </c>
+      <c r="I10">
+        <v>0.4180064812014002</v>
+      </c>
+      <c r="J10">
+        <v>0.4180064812014001</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>6.782577666666666</v>
+      </c>
+      <c r="N10">
+        <v>20.347733</v>
+      </c>
+      <c r="O10">
+        <v>0.1045410804955664</v>
+      </c>
+      <c r="P10">
+        <v>0.1045410804955663</v>
+      </c>
+      <c r="Q10">
+        <v>6.339144043116111</v>
+      </c>
+      <c r="R10">
+        <v>57.05229638804499</v>
+      </c>
+      <c r="S10">
+        <v>0.04369884919894402</v>
+      </c>
+      <c r="T10">
+        <v>0.04369884919894401</v>
       </c>
     </row>
   </sheetData>
